--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value259.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value259.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8174850651484969</v>
+        <v>2.140252590179443</v>
       </c>
       <c r="B1">
-        <v>0.9581751781273855</v>
+        <v>2.690697193145752</v>
       </c>
       <c r="C1">
-        <v>1.237335681366734</v>
+        <v>2.818108081817627</v>
       </c>
       <c r="D1">
-        <v>2.625507514870126</v>
+        <v>2.875888347625732</v>
       </c>
       <c r="E1">
-        <v>3.580262143213036</v>
+        <v>0.7753333449363708</v>
       </c>
     </row>
   </sheetData>
